--- a/XlsxToLua/bin/Debug/TestChecker.xlsx
+++ b/XlsxToLua/bin/Debug/TestChecker.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my\Source\Code\xlsxtolua\XlsxToLua\bin\Debug\TestExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具\XlsxToLua\bin\Debug\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="356">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1425,53 +1425,13 @@
   </si>
   <si>
     <t>!{ a ,b,cd}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRefForInt3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testRefForInt4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值引用检查（int），检查填写的所有值是否在指定表格指定字段中有对应相等值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值引用检查（int），检查填写的所有值是否在指定表格指定字段中有对应相等值（但排除指定值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref:table[Hero.heroId,HeroEquipment.id]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref:table[Hero.heroId,HeroEquipment.id](except{41})</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1695,14 +1655,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1770,23 +1730,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1822,23 +1765,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2018,11 +1944,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BX9"/>
+  <dimension ref="A1:BV9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BX13" sqref="BX13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2065,11 +1991,10 @@
     <col min="65" max="65" width="27.625" style="2" customWidth="1"/>
     <col min="66" max="73" width="9" style="2"/>
     <col min="74" max="74" width="26.5" style="2" customWidth="1"/>
-    <col min="75" max="76" width="27" style="2" customWidth="1"/>
-    <col min="77" max="16384" width="9" style="2"/>
+    <col min="75" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:74" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2292,14 +2217,8 @@
       <c r="BV1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="BW1" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="BX1" s="10" t="s">
-        <v>359</v>
-      </c>
     </row>
-    <row r="2" spans="1:76" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:74" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2518,14 +2437,8 @@
       <c r="BV2" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="BW2" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="BX2" s="10" t="s">
-        <v>357</v>
-      </c>
     </row>
-    <row r="3" spans="1:76" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:74" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2748,14 +2661,8 @@
       <c r="BV3" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BW3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="BX3" s="10" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:76" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:74" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -2959,14 +2866,8 @@
       <c r="BV4" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="BW4" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="BX4" s="10" t="s">
-        <v>365</v>
-      </c>
     </row>
-    <row r="5" spans="1:76" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:74" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -3032,10 +2933,8 @@
       <c r="BT5" s="5"/>
       <c r="BU5" s="5"/>
       <c r="BV5" s="7"/>
-      <c r="BW5" s="10"/>
-      <c r="BX5" s="10"/>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>154</v>
       </c>
@@ -3208,14 +3107,8 @@
       <c r="BR6" s="4">
         <v>-1</v>
       </c>
-      <c r="BW6" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="BX6" s="2" t="s">
-        <v>360</v>
-      </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>150</v>
       </c>
@@ -3423,14 +3316,8 @@
       <c r="BV7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BW7" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="BX7" s="2" t="s">
-        <v>361</v>
-      </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>151</v>
       </c>
@@ -3644,14 +3531,8 @@
       <c r="BV8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="BW8" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="BX8" s="2" t="s">
-        <v>362</v>
-      </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>152</v>
       </c>
@@ -3864,12 +3745,6 @@
       </c>
       <c r="BV9" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="BW9" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="BX9" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
   </sheetData>
